--- a/tut05/output/0501CS29.xlsx
+++ b/tut05/output/0501CS29.xlsx
@@ -550,25 +550,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.897959183673469</v>
+        <v>7.9</v>
       </c>
       <c r="C6" t="n">
-        <v>7.068181818181818</v>
+        <v>7.07</v>
       </c>
       <c r="D6" t="n">
-        <v>7.558139534883721</v>
+        <v>7.56</v>
       </c>
       <c r="E6" t="n">
-        <v>7.042553191489362</v>
+        <v>7.04</v>
       </c>
       <c r="F6" t="n">
-        <v>7.309523809523809</v>
+        <v>7.31</v>
       </c>
       <c r="G6" t="n">
-        <v>6.875</v>
+        <v>6.88</v>
       </c>
       <c r="H6" t="n">
-        <v>7.829268292682927</v>
+        <v>7.83</v>
       </c>
       <c r="I6" t="n">
         <v>7.8</v>
@@ -612,28 +612,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7.897959183673469</v>
+        <v>7.9</v>
       </c>
       <c r="C8" t="n">
-        <v>7.505376344086022</v>
+        <v>7.51</v>
       </c>
       <c r="D8" t="n">
-        <v>7.522058823529412</v>
+        <v>7.52</v>
       </c>
       <c r="E8" t="n">
-        <v>7.398907103825136</v>
+        <v>7.4</v>
       </c>
       <c r="F8" t="n">
-        <v>7.382222222222222</v>
+        <v>7.38</v>
       </c>
       <c r="G8" t="n">
-        <v>7.305660377358491</v>
+        <v>7.31</v>
       </c>
       <c r="H8" t="n">
-        <v>7.375816993464053</v>
+        <v>7.38</v>
       </c>
       <c r="I8" t="n">
-        <v>7.42485549132948</v>
+        <v>7.42</v>
       </c>
     </row>
   </sheetData>
